--- a/flightSoft/trunk/ANITA_cmdSend.xlsx
+++ b/flightSoft/trunk/ANITA_cmdSend.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Prioritizerd" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ANITA_cmdSend" localSheetId="0">cmdList!$A$1:$E$103</definedName>
+    <definedName name="ANITA_cmdSend" localSheetId="0">cmdList!$A$4:$E$107</definedName>
+    <definedName name="ANITA_cmdSend_1" localSheetId="0">cmdList!$A$4:$E$106</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="267">
   <si>
     <t>Command Name</t>
   </si>
@@ -436,6 +437,108 @@
     <t>Tested</t>
   </si>
   <si>
+    <t>BenS</t>
+  </si>
+  <si>
+    <t>PRI_PANIC_QUEUE_LENGTH</t>
+  </si>
+  <si>
+    <t>PRI_PARAMS_LOW_BIN_EDGE</t>
+  </si>
+  <si>
+    <t>PRI_PARAMS_HIGH_BIN_EDGE</t>
+  </si>
+  <si>
+    <t>PRI_SLOPE_IMAGE_HILBERT</t>
+  </si>
+  <si>
+    <t>PRI_INTERCEPT_IMAGE_HILBERT</t>
+  </si>
+  <si>
+    <t>PRI_BIN_TO_BIN_THRESH</t>
+  </si>
+  <si>
+    <t>PRI_ABS_MAG_THRESH</t>
+  </si>
+  <si>
+    <t>PRI_THETA_ANGLE_DEMOTION_LOW</t>
+  </si>
+  <si>
+    <t>PRI_THETA_ANGLE_DEMOTION_HIGH</t>
+  </si>
+  <si>
+    <t>PRI_THETA_ANGLE_DEMOTION_PRIORITY</t>
+  </si>
+  <si>
+    <t>PRI_POWER_SPECTRUM_PERIOD</t>
+  </si>
+  <si>
+    <t>PRI_ANT_PHI_POS</t>
+  </si>
+  <si>
+    <t>PRI_ANT_R_POS</t>
+  </si>
+  <si>
+    <t>PRI_ANT_Z_POS</t>
+  </si>
+  <si>
+    <t>PRI_POS_SATUATION</t>
+  </si>
+  <si>
+    <t>PRI_NEG_SATUATION</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Number of events in Prioritizerd queue before writing all links to disk with priority 7</t>
+  </si>
+  <si>
+    <t>Array 1 of 2 mapping GPU figure of merit to priorities</t>
+  </si>
+  <si>
+    <t>Array 2 of 2 mapping GPU figure of merit to priorities</t>
+  </si>
+  <si>
+    <t>Number 1 of 2 mapping Hilbert envelope peak to image peak</t>
+  </si>
+  <si>
+    <t>Number 2 of 2 mapping Hilbert envelope peak to image peak</t>
+  </si>
+  <si>
+    <t>Bin-to-bin difference in dB above which events are put in CW bin</t>
+  </si>
+  <si>
+    <t>Absolute magnitude if dBm above which events are put in CW bin</t>
+  </si>
+  <si>
+    <t>Image peak elevation below which event is demoted in priority by PRI_THETA_ANGLE_DEMOTION_PRIORITY</t>
+  </si>
+  <si>
+    <t>Image peak elevation above which event is demoted in priority by PRI_THETA_ANGLE_DEMOTION_PRIORITY</t>
+  </si>
+  <si>
+    <t>Difference in priority to assign to events with image peak oustide elvation angles PRI_THETA_ANGLE_DEMOTION_LOW, PRI_THETA_ANGLE_DEMOTION_HIGH</t>
+  </si>
+  <si>
+    <t>Period in seconds between which GPU power spectra packets are averaged over before writing to disk</t>
+  </si>
+  <si>
+    <t>Antenna locations for interferometry  - azimuth in degrees</t>
+  </si>
+  <si>
+    <t>Antenna locations for interferometry - radius in metres</t>
+  </si>
+  <si>
+    <t>Antenna locations for interferometry - relative height in metres</t>
+  </si>
+  <si>
+    <t>Value in ADC counts above which event goes in saturation priority bin (9)</t>
+  </si>
+  <si>
+    <t>Value in ADC counts below which event goes in saturation priority bin (9)</t>
+  </si>
+  <si>
     <t>RJN</t>
   </si>
   <si>
@@ -454,6 +557,24 @@
     <t>Sends last N lines of journalctl _COMM=Progname</t>
   </si>
   <si>
+    <t>shuts down the computer, a SIP power cycle will be required</t>
+  </si>
+  <si>
+    <t>Reboots the computer, reboot time is about 50s</t>
+  </si>
+  <si>
+    <t>Programs will be automatically restarted</t>
+  </si>
+  <si>
+    <t>usbName</t>
+  </si>
+  <si>
+    <t>eventDiskBitMask</t>
+  </si>
+  <si>
+    <t>hkDiskBitMask</t>
+  </si>
+  <si>
     <t>Calibd.config</t>
   </si>
   <si>
@@ -463,15 +584,6 @@
     <t>stateBZAmpa1,stateBZAmpa2</t>
   </si>
   <si>
-    <t>usbName</t>
-  </si>
-  <si>
-    <t>hkDiskBitMask</t>
-  </si>
-  <si>
-    <t>eventDiskBitMask</t>
-  </si>
-  <si>
     <t>stateNTUAmpa</t>
   </si>
   <si>
@@ -490,15 +602,6 @@
     <t>softTrigPeriod</t>
   </si>
   <si>
-    <t>Programs will be automatically restarted</t>
-  </si>
-  <si>
-    <t>Reboots the computer, reboot time is about 50s</t>
-  </si>
-  <si>
-    <t>shuts down the computer, a SIP power cycle will be required</t>
-  </si>
-  <si>
     <t>Not recommended</t>
   </si>
   <si>
@@ -508,131 +611,372 @@
     <t>setPidGoals</t>
   </si>
   <si>
+    <t>Number of lines to send</t>
+  </si>
+  <si>
+    <t>Number of lines</t>
+  </si>
+  <si>
+    <t>Arguments 1</t>
+  </si>
+  <si>
+    <t>Subset of journalctr output?</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Which USB drive</t>
+  </si>
+  <si>
+    <t>Which log file (options printed)</t>
+  </si>
+  <si>
+    <t>Select program or all (options printed)</t>
+  </si>
+  <si>
+    <t>Method of selecting disk</t>
+  </si>
+  <si>
+    <t>Which disks</t>
+  </si>
+  <si>
+    <t>The program cmdTui gives detailed instructions on the arguments required by each command</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trust cmdTui over this document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as the exact format of the arguments may vary slightly from what is shown here</t>
+    </r>
+  </si>
+  <si>
+    <t>However the arguments columns give an accurate idea of what is possible</t>
+  </si>
+  <si>
+    <t>Data format (options printed)</t>
+  </si>
+  <si>
+    <t>Which priority</t>
+  </si>
+  <si>
+    <t>Which disk bit mask</t>
+  </si>
+  <si>
+    <t>Would be good to have a more user friendly option than entering a bitmask into a text prompt</t>
+  </si>
+  <si>
+    <t>Which telemetry encoding type</t>
+  </si>
+  <si>
+    <t>Decimation fraction</t>
+  </si>
+  <si>
+    <t>Priority of PPS1 triggers</t>
+  </si>
+  <si>
+    <t>Select PPS1, PPS2 or software triggers</t>
+  </si>
+  <si>
+    <t>Sat lockout period (seconds)</t>
+  </si>
+  <si>
+    <t>ADU5 pos+att readout period (units of 100ms)</t>
+  </si>
+  <si>
+    <t>G12 PPS period  (ms)</t>
+  </si>
+  <si>
+    <t>PPS offset to start of second (ms)</t>
+  </si>
+  <si>
+    <t>Which ADU5</t>
+  </si>
+  <si>
+    <t>V12 calibration value (for each adu5)</t>
+  </si>
+  <si>
+    <t>V13 calibration value (for each adu5)</t>
+  </si>
+  <si>
+    <t>V14 calibration value (for each adu5)</t>
+  </si>
+  <si>
+    <t>Velocity and course readout period (seconds)</t>
+  </si>
+  <si>
+    <t>G12 position readout period (ms)</t>
+  </si>
+  <si>
+    <t>GPSD.config</t>
+  </si>
+  <si>
+    <t>Housekeeping readout period (units of 100ms)</t>
+  </si>
+  <si>
+    <t>Housekeeping calibration readout period (seconds)</t>
+  </si>
+  <si>
+    <t>Telemeter housekeeping after how many events (events)</t>
+  </si>
+  <si>
+    <t>Which Config file (options printed)</t>
+  </si>
+  <si>
+    <t>Which version number?</t>
+  </si>
+  <si>
+    <t>Ramdisk Acqd kill threshold (MB)</t>
+  </si>
+  <si>
+    <t>Ramdisk dump data threshold (MB)</t>
+  </si>
+  <si>
+    <t>Wait time before restarting Acqd after filling ramdisk (seconds)</t>
+  </si>
+  <si>
+    <t>Monitor period (seconds)</t>
+  </si>
+  <si>
+    <t>Threshold to switch USB drives (MB)</t>
+  </si>
+  <si>
+    <t>Select Blades or Minis</t>
+  </si>
+  <si>
+    <t>Switch thresholds in megabytes</t>
+  </si>
+  <si>
+    <t>Is blades vs Minis an outdated thing from ANITA-2?</t>
+  </si>
+  <si>
+    <t>Max event queue size (events)</t>
+  </si>
+  <si>
+    <t>Set inodes limit to kill Acqd (inodes)</t>
+  </si>
+  <si>
+    <t>Set inodes limit to dump data (inodes)</t>
+  </si>
+  <si>
+    <t>Enable or disable</t>
+  </si>
+  <si>
+    <t>Software trigger period (seconds)</t>
+  </si>
+  <si>
+    <t>Send SURF housekeeping data every how many events? (events)</t>
+  </si>
+  <si>
+    <t>Send TURF housekeeping data every how many events? (events)</t>
+  </si>
+  <si>
+    <t>Number of events in pedestal run</t>
+  </si>
+  <si>
+    <t>Threshold scan step size</t>
+  </si>
+  <si>
+    <t>Threshold scan points per step</t>
+  </si>
+  <si>
+    <t>Enable or disable GPS matching</t>
+  </si>
+  <si>
+    <t>See Prioritizerd sheet for details</t>
+  </si>
+  <si>
+    <t>Select option:
+(a) GGA_PERIOD
+(b) PAT_TELEM_EVERY
+(c) VTG_TELEM_EVERY
+(d) SAT_TELEM_EVERY
+(e) GGA_TELEM_EVERY
+(f) POS_TELEM_EVERY
+(g) INI_RESET_FLAG
+(h) ELEVATION_MASK
+(i) CYC_PHASE_ERROR
+(j) MXB_BASELINE_ERROR
+(k) MXM_PHASE_ERROR</t>
+  </si>
+  <si>
+    <t>Text prompt does not say what units things have.</t>
+  </si>
+  <si>
+    <t>Select option:
+(a) ENABLE_CHAN_SERVO
+(b) SET_PID_GOALS
+(c) SET_ANT_TRIG_MASK
+(d) SET_PHI_MASK_VPOL
+(e) SET_SURF_BAND_TRIG_MASK
+(f) SET_CHAN_PID_GOAL_SCALE
+(g) ENABLE_DYNAMIC_PHI_MASK
+(h) ENABLE_DYNAMIC_ANT_MASK
+(i) SET_DYNAMIC_PHI_MASK_OVER  
+(j) SET_DYNAMIC_PHI_MASK_UNDER 
+(k) SET_DYNAMIC_ANT_MASK_OVER 
+(l) SET_DYNAMIC_ANT_MASK_UNDER
+(m) SET_GLOBAL_THRESHOLD
+(n) SET_PID_PGAIN
+(o) SET_PID_IGAIN
+(p) SET_PID_DGAIN
+(q) SET_PID_IMAX
+(r) SET_PID_IMIN
+(s) SET_PID_AVERAGE
+(t) SET_PHI_MASK_HPOL</t>
+  </si>
+  <si>
+    <t>...
+(a) Enable or disable
+(b) Enter top ring rate, middle ring rate, bottom ring rate (kHz)
+(c) Input antennas to mask
+(d) Input phi-sectors to mask
+(e) Which SURF, Hex bitmask for 16 channels
+(f) Which SURF, Which DAC, what scale factor
+(g) Enable or disable
+(h) Enable or disable
+(i) Set phi-sector over threshold rate (Hz), window (seconds)
+(j) Set phi-sector under threshold rate (Hz), window (seconds)
+(k) Set antenna over threshold rate (Hz), window (seconds)
+(l) Set antenna under threshold rate (Hz), window (seconds)
+(m) Set band goals: low, mid high
+(n) Select band, gain
+(o) Select band, gain
+(p) Select band, gain
+(q) Select band, gain
+(r) Select band, gain
+(s) PID Surf Housekeeping average
+(t) Input phi-sectors to mask</t>
+  </si>
+  <si>
+    <t>Select option:
+(a) SEND_WAVE
+(b) THROTTLE_RATE
+(c) PRIORITY_BANDWIDTH
+(d) HEADERS_PER_EVENT
+(e) HK_TELEM_ORDER
+(f) HK_TELEM_MAX_PACKETS</t>
+  </si>
+  <si>
+    <t>...
+(a) None
+(b) None
+(c) Which priority
+(d) None
+(e) Which hk index
+(f) Which hk index</t>
+  </si>
+  <si>
+    <t>Text prompt does not say what units things have</t>
+  </si>
+  <si>
+    <t>Select option:
+(a) ENABLE
+(b) UPDATE_PERIOD
+(c) SET_SOURCE_LATITUDE
+(d) SET_SOURCE_LONGITUDE
+(e) SET_SOURCE_ALTITUDE
+(f) SET_SOURCE_HORIZON
+(g) SET_SOURCE_WIDTH</t>
+  </si>
+  <si>
+    <t>Select option: 
+(a) SET_TURF_RATE_AVERAGE
+(b) SET_PHOTO_SHUTTER_MASK
+(c) SET_PPS_SOURCE
+(d) SET_REF_CLOCK_SOURCE</t>
+  </si>
+  <si>
+    <t>...
+(a) Number of TURF rates
+(b) decimal
+(c) Select ADU5, ADU5B, G12
+(d) Select 125MHz or 33MHz</t>
+  </si>
+  <si>
+    <t>Select option:
+(a) SEND_DATA 
+(b) PRIORITY_BANDWIDTH</t>
+  </si>
+  <si>
+    <t>...
+(a) On or Off, bandwidth fraction
+(b) Which priority</t>
+  </si>
+  <si>
+    <t>Which ADU5, enter value</t>
+  </si>
+  <si>
+    <t>Which disk bit mask, Decimation fraction</t>
+  </si>
+  <si>
+    <t>Which encoding type, Which clock encoding type</t>
+  </si>
+  <si>
+    <t>Priority of PPS2 triggers, Priority of soft triggers</t>
+  </si>
+  <si>
+    <t>Disk or telemetry decimation, Decimation fraction</t>
+  </si>
+  <si>
+    <t>Further arguments (comma separated)</t>
+  </si>
+  <si>
+    <t>...
+(a) Enable or disable
+(b) Update period (micro-seconds?)
+(c) Select source, latitude
+(d) Select source, longitude
+(e) Select source, altitude (m)
+(f) Select source, horizon (m)
+(g) Select source, num phi-sectors</t>
+  </si>
+  <si>
+    <t>Select option:
+(a) GET_SINGLE_EVENT
+(b) START_PRIORITY
+(c) STOP_PRIORITY
+(d) USE_DISK
+(e) START_PLAYBACK
+(f) STOP_PLAYBACK
+(g) SLEEP_PERIOD</t>
+  </si>
+  <si>
+    <t>...
+(a) Event number, desired priority
+(b) Priority to start playing back
+(c) Priority to stop playing back
+(d) Select helium1, helium2, USB
+(e) None
+(f) None
+(g) Sleep period (ms) [1./rate(kHz)]</t>
+  </si>
+  <si>
+    <t>Many options: See Prioritizerd sheet</t>
+  </si>
+  <si>
     <t>Set PID goals and other things</t>
-  </si>
-  <si>
-    <t>PRI_PANIC_QUEUE_LENGTH</t>
-  </si>
-  <si>
-    <t>PRI_PARAMS_LOW_BIN_EDGE</t>
-  </si>
-  <si>
-    <t>PRI_PARAMS_HIGH_BIN_EDGE</t>
-  </si>
-  <si>
-    <t>PRI_SLOPE_IMAGE_HILBERT</t>
-  </si>
-  <si>
-    <t>PRI_INTERCEPT_IMAGE_HILBERT</t>
-  </si>
-  <si>
-    <t>PRI_BIN_TO_BIN_THRESH</t>
-  </si>
-  <si>
-    <t>PRI_ABS_MAG_THRESH</t>
-  </si>
-  <si>
-    <t>PRI_THETA_ANGLE_DEMOTION_LOW</t>
-  </si>
-  <si>
-    <t>PRI_THETA_ANGLE_DEMOTION_HIGH</t>
-  </si>
-  <si>
-    <t>PRI_THETA_ANGLE_DEMOTION_PRIORITY</t>
-  </si>
-  <si>
-    <t>PRI_POWER_SPECTRUM_PERIOD</t>
-  </si>
-  <si>
-    <t>PRI_ANT_PHI_POS</t>
-  </si>
-  <si>
-    <t>PRI_ANT_R_POS</t>
-  </si>
-  <si>
-    <t>PRI_ANT_Z_POS</t>
-  </si>
-  <si>
-    <t>PRI_POS_SATUATION</t>
-  </si>
-  <si>
-    <t>PRI_NEG_SATUATION</t>
-  </si>
-  <si>
-    <t>Arg Number</t>
-  </si>
-  <si>
-    <t>Arg Name</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>If queue length is reached Prioritizerd writes all links to disk with priority 7 without doing any analysis</t>
-  </si>
-  <si>
-    <t>1/2 arrays mapping GPU analysis number(s) to priority - tuned from pulsing calibration data</t>
-  </si>
-  <si>
-    <t>2/2 arrays mapping GPU analysis number(s) to priority - tuned from pulsing calibration data</t>
-  </si>
-  <si>
-    <t>Slope of line normalizing hilbert envelope peak to same scale as image peak</t>
-  </si>
-  <si>
-    <t>Intercept of line normalizing hilbert envelope peak to same scale as image peak</t>
-  </si>
-  <si>
-    <t>GPU calculates average power spectrum of 128 events, if any bin is above this value events are put into CW priority bin (8)</t>
-  </si>
-  <si>
-    <t>GPU calculates average power spectrum of 128 events, if any bin-to-bin change is above this value events are put into CW priority bin (8)</t>
-  </si>
-  <si>
-    <t>If reconstructed angle is above this elevation angle (degrees) then events are demoted by PRI_THETA_ANGLE_DEMOTION_PRIORITY</t>
-  </si>
-  <si>
-    <t>If reconstructed angle is below this elevation angle (degrees) then events are demoted by PRI_THETA_ANGLE_DEMOTION_PRIORITY</t>
-  </si>
-  <si>
-    <t>Number added to priority is image peak is outside specified elevation angle range (should be positive, only added to priorities 1-&gt;5)</t>
-  </si>
-  <si>
-    <t>Period in seconds to write a GPU power spectrum package to disk</t>
-  </si>
-  <si>
-    <t>Antenna position for GPU interferometry, azimuth in degrees</t>
-  </si>
-  <si>
-    <t>Antenna position for GPU interferometry, radial position in meters</t>
-  </si>
-  <si>
-    <t>Antenna position for GPU interferometry, height position in meters</t>
-  </si>
-  <si>
-    <t>Value in ADC counts greater than which event goes in saturation priority bin (9)</t>
-  </si>
-  <si>
-    <t>Value in ADC counts below which event goes in saturation priority bin (9)</t>
-  </si>
-  <si>
-    <t>BenS</t>
-  </si>
-  <si>
-    <t>Argument descriptions for Prioritizerd command 253</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -678,6 +1022,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -705,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -739,8 +1089,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -800,40 +1243,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -852,11 +1263,41 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -886,22 +1327,6 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -931,181 +1356,18 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ANITA_cmdSend_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ANITA_cmdSend" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1431,9 +1693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1442,127 +1706,121 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18">
+      <c r="A1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J4" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3">
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="F5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -1572,19 +1830,29 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1592,16 +1860,20 @@
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1610,105 +1882,123 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>127</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>128</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>128</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
         <v>129</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3">
-        <v>130</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3">
-        <v>131</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -1718,47 +2008,41 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3">
-        <v>132</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>130</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>133</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1766,19 +2050,25 @@
         <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -1788,19 +2078,29 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1808,1047 +2108,1329 @@
         <v>5</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>136</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="E22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>139</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>140</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3">
+      <c r="F26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
         <v>141</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3">
-        <v>142</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3">
-        <v>144</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3">
-        <v>145</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>147</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
+        <v>148</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>149</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
         <v>150</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3">
-        <v>151</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3">
-        <v>152</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3">
-        <v>153</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>157</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>128</v>
+        <v>180</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>128</v>
+        <v>180</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3">
-        <v>162</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="3">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>128</v>
+        <v>181</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3">
+        <v>161</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3">
+        <v>162</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="3">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3">
-        <v>181</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3">
-        <v>182</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="3">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="3">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="3">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="3">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="3">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="3">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="3">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="3">
+        <v>187</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="3">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" ht="180">
       <c r="A62" s="3">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3">
-        <v>192</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
+        <v>218</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="3">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F64" s="4" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="3">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="3">
+        <v>192</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" ht="105">
+      <c r="A67" s="3">
+        <v>195</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="3">
+      <c r="E67" s="4"/>
+      <c r="F67" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45">
+      <c r="A68" s="3">
+        <v>196</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="3">
         <v>201</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="3">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="3">
         <v>210</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="3">
-        <v>211</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="3">
-        <v>212</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="3">
-        <v>213</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F72" s="4" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="3">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F73" s="4" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="3">
+        <v>212</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="3">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="3">
         <v>222</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="G76" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="3">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
@@ -2856,17 +3438,21 @@
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="3">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -2874,17 +3460,21 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="3">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
@@ -2892,17 +3482,21 @@
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="H80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="3">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -2910,448 +3504,616 @@
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="3">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="3">
+        <v>226</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="3">
+        <v>227</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="3">
+        <v>228</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="3">
         <v>230</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="3">
-        <v>231</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="3">
-        <v>232</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="3">
-        <v>233</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="3">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D89" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="3">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G90" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="3">
+        <v>233</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="3">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="H92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="3">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="3">
-        <v>243</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="1:10" ht="75">
       <c r="A95" s="3">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="3">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="H96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="3">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="H97" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="3">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="H98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="3">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="3">
+        <v>246</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="3">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" ht="315">
+      <c r="A102" s="3">
+        <v>250</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="3">
+        <v>251</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="3">
-        <v>252</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="3">
-        <v>253</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="3">
-        <v>254</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="H104" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" ht="120">
+      <c r="A105" s="3">
+        <v>252</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3">
+        <v>253</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="120">
+      <c r="A107" s="3">
+        <v>254</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3366,374 +4128,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="112.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>173</v>
+      <c r="F1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D8" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:F18">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH("Untested",A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
